--- a/Module-15/Live-Class-1/link.xlsx
+++ b/Module-15/Live-Class-1/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice Work\training-ostad\Module-15\Live-Class-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566118F-F94D-4EC8-9F7F-E0F01E9A070B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A322E-26C7-47B3-9CCB-5713D79DAB2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{EC8FC6E7-2B23-4F77-BDF6-C61E13D3EB16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://vuetifyjs.com/en/</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>https://themeselection.com/</t>
+  </si>
+  <si>
+    <t>https://awesome-vue.js.org/</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -155,6 +164,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,102 +485,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9740C41A-43EA-4C96-A893-DB52D5A33F41}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{769AA4F7-79F5-4E59-B3D5-AB9A80DFCC8D}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{6685CD32-1350-4BDA-8028-4447AB0925A4}"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{769AA4F7-79F5-4E59-B3D5-AB9A80DFCC8D}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{6685CD32-1350-4BDA-8028-4447AB0925A4}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{6122457C-4951-46F3-9266-528D9C43A2BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>